--- a/eval_results/AllResults_RRMS_10runs_PerSample.xlsx
+++ b/eval_results/AllResults_RRMS_10runs_PerSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/cellCNNClear/data/cellCNN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/eval_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27069FD-FFC4-1D48-9A29-72C38AC60977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A00B1-E06F-7A4E-B2DA-D263E2807C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{AC667DA7-8BE7-6F41-BC2F-ECE3CB111E46}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{AC667DA7-8BE7-6F41-BC2F-ECE3CB111E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,25 +64,25 @@
     <t>Local_2</t>
   </si>
   <si>
-    <t>PEGASUS (N=2)</t>
-  </si>
-  <si>
     <t>Local_4</t>
-  </si>
-  <si>
-    <t>PEGASUS (N=4)</t>
   </si>
   <si>
     <t>Local_6</t>
   </si>
   <si>
-    <t>PEGASUS (N=6)</t>
-  </si>
-  <si>
     <t>Local_12</t>
   </si>
   <si>
-    <t>PEGASUS (N=12)</t>
+    <t>PriCell (N=2)</t>
+  </si>
+  <si>
+    <t>PriCell (N=4)</t>
+  </si>
+  <si>
+    <t>PriCell (N=6)</t>
+  </si>
+  <si>
+    <t>PriCell (N=12)</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A2BDAE-4100-0D4E-91FB-1B23960094C3}">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:E94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0.75</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0.67</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>0.57999999999999996</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>0.67</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>0.92</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>0.57999999999999996</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>0.57999999999999996</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>0.67</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>0.75</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>0.57999999999999996</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>0.68</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>0.66</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>0.65</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>0.65</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>0.76</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>0.65</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>0.63</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>0.65</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>0.68</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>0.51</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.52083332999999998</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>0.58333332999999998</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>0.5625</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>0.5</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>0.6875</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>0.5625</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.5</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>0.54166667000000002</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>0.66666667000000002</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0.5</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>0.55147279999999999</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>0.57504001000000005</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>0.54743449</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>0.52284207000000005</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>0.67110921999999995</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0.55628626000000003</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>0.49178586000000002</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>0.51376524999999995</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>0.60182036000000005</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>0.49294859000000002</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>0.67</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>0.57999999999999996</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>0.67</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>0.67</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>0.57999999999999996</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>0.5</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>0.83</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>0.92</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>0.75</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>0.57999999999999996</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>0.65</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>0.64</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>0.59</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>0.55000000000000004</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>0.64</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>0.55000000000000004</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>0.7</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>0.8</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>0.64</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>0.59</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>0.45833332999999998</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103">
         <v>0.55555555999999995</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>0.45833332999999998</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>0.54166667000000002</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>0.48611111000000001</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107">
         <v>0.52777777999999997</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>0.59722222000000003</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>0.51388889000000004</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>0.54166667000000002</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111">
         <v>0.41666667000000002</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>0.47710374999999999</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>0.54036640999999996</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>0.44270521000000002</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>0.54786791000000001</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>0.46290924999999999</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>0.52854738000000001</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>0.55982030000000005</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>0.53192304999999995</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>0.53759084999999995</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>0.41149063000000002</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>0.75</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>0.67</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>0.42</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B125">
         <v>0.57999999999999996</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126">
         <v>0.67</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>0.75</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>0.83</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>0.75</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130">
         <v>0.67</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>0.67</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B132">
         <v>0.66</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133">
         <v>0.66</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>0.49</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>0.65</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B136">
         <v>0.56000000000000005</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B137">
         <v>0.78</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138">
         <v>0.69</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B139">
         <v>0.63</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>0.64</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>0.64</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
         <v>8</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
         <v>8</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
         <v>8</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
         <v>8</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
         <v>8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
         <v>8</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
         <v>8</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>8</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
         <v>8</v>
